--- a/2_KC2.xlsx
+++ b/2_KC2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ppr_project\Графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ivan\Dev\ppr_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9512AE7-FF6A-4CD8-A5E7-234853CC7C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F48486-35C4-4A8D-9803-3B581C4CE20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7606584-FAA1-444E-9DFF-7AA49D990813}"/>
+    <workbookView xWindow="50" yWindow="1470" windowWidth="21640" windowHeight="11200" xr2:uid="{D7606584-FAA1-444E-9DFF-7AA49D990813}"/>
   </bookViews>
   <sheets>
     <sheet name="02_КЦ-2" sheetId="1" r:id="rId1"/>
@@ -158,13 +158,6 @@
 - визуальный контроль работоспособности ПЛК по светодиодной индикации</t>
   </si>
   <si>
-    <t>Диагностика:
-- просмотр сообщ. диагн. буфера ПЛК на наличие прогр. ошибок (при нал. тех. возм.);
-- диагностика работы модулей ПЛК (при наличии апп. («Hardware») диа-гностики);
-- просмотр диагн. сообщений в ЖС на АРМ;
-- анализ диагн. сообщений и устр. ошибок</t>
-  </si>
-  <si>
     <t>Сравнение показаний основных и дублирующих средств измрений на коммерческих и хозрасчетных УИРГ с дублирующими системами измерений</t>
   </si>
   <si>
@@ -341,6 +334,9 @@
   </si>
   <si>
     <t>Серверы АСУ ТП, АСУ Э</t>
+  </si>
+  <si>
+    <t>Диагностика ПЛК (просмотр диаг.буфура, анализ сообщений и устр. ошибок)</t>
   </si>
 </sst>
 </file>
@@ -922,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:AO145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1609,12 +1605,12 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="12"/>
@@ -1639,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>14</v>
@@ -1670,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
@@ -1698,10 +1694,10 @@
     </row>
     <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>20</v>
@@ -1729,10 +1725,10 @@
     </row>
     <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>20</v>
@@ -1760,10 +1756,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
@@ -1791,10 +1787,10 @@
     </row>
     <row r="26" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>20</v>
@@ -1822,10 +1818,10 @@
     </row>
     <row r="27" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>20</v>
@@ -1853,10 +1849,10 @@
     </row>
     <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>20</v>
@@ -1900,10 +1896,10 @@
     </row>
     <row r="29" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>20</v>
@@ -1931,10 +1927,10 @@
     </row>
     <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
@@ -1978,10 +1974,10 @@
     </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
@@ -2009,10 +2005,10 @@
     </row>
     <row r="32" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -2040,10 +2036,10 @@
     </row>
     <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -2065,10 +2061,10 @@
     </row>
     <row r="34" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -2096,10 +2092,10 @@
     </row>
     <row r="35" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>20</v>
@@ -2127,10 +2123,10 @@
     </row>
     <row r="36" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -2158,10 +2154,10 @@
     </row>
     <row r="37" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>20</v>
@@ -2189,10 +2185,10 @@
     </row>
     <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>20</v>
@@ -2220,10 +2216,10 @@
     </row>
     <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>20</v>
@@ -2251,10 +2247,10 @@
     </row>
     <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>20</v>
@@ -2282,10 +2278,10 @@
     </row>
     <row r="41" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>20</v>
@@ -2313,10 +2309,10 @@
     </row>
     <row r="42" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="13"/>
@@ -2338,10 +2334,10 @@
     </row>
     <row r="43" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>20</v>
@@ -2369,10 +2365,10 @@
     </row>
     <row r="44" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>20</v>
@@ -2400,10 +2396,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>20</v>
@@ -2447,10 +2443,10 @@
     </row>
     <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>20</v>
@@ -2494,10 +2490,10 @@
     </row>
     <row r="47" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>20</v>
@@ -2541,10 +2537,10 @@
     </row>
     <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>20</v>
@@ -2572,10 +2568,10 @@
     </row>
     <row r="49" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>19</v>
@@ -2603,10 +2599,10 @@
     </row>
     <row r="50" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="13"/>
@@ -2628,10 +2624,10 @@
     </row>
     <row r="51" spans="1:34" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>19</v>
@@ -2659,10 +2655,10 @@
     </row>
     <row r="52" spans="1:34" ht="31" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>19</v>
@@ -2690,10 +2686,10 @@
     </row>
     <row r="53" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>19</v>
@@ -2721,10 +2717,10 @@
     </row>
     <row r="54" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="6" t="s">
@@ -2769,10 +2765,10 @@
     </row>
     <row r="55" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="6" t="s">
@@ -2817,10 +2813,10 @@
     </row>
     <row r="56" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
@@ -2865,10 +2861,10 @@
     </row>
     <row r="57" spans="1:34" ht="31" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="6" t="s">
@@ -2913,10 +2909,10 @@
     </row>
     <row r="58" spans="1:34" ht="31" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="6" t="s">
@@ -2961,10 +2957,10 @@
     </row>
     <row r="59" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>20</v>
@@ -3025,10 +3021,10 @@
     </row>
     <row r="60" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
@@ -3073,10 +3069,10 @@
     </row>
     <row r="61" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>20</v>
@@ -3137,10 +3133,10 @@
     </row>
     <row r="62" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
@@ -3185,10 +3181,10 @@
     </row>
     <row r="63" spans="1:34" ht="31" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>15</v>
@@ -3233,10 +3229,10 @@
     </row>
     <row r="64" spans="1:34" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -3275,10 +3271,10 @@
     </row>
     <row r="65" spans="1:37" ht="31" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="11" t="s">
@@ -3323,10 +3319,10 @@
     </row>
     <row r="66" spans="1:37" ht="31" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
@@ -3371,10 +3367,10 @@
     </row>
     <row r="67" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="6" t="s">
@@ -3411,10 +3407,10 @@
     </row>
     <row r="68" spans="1:37" ht="31" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="6" t="s">
@@ -3456,10 +3452,10 @@
     </row>
     <row r="69" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="6" t="s">
@@ -3501,10 +3497,10 @@
     </row>
     <row r="70" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="6" t="s">
@@ -3546,10 +3542,10 @@
     </row>
     <row r="71" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="6" t="s">
@@ -3591,10 +3587,10 @@
     </row>
     <row r="72" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="6" t="s">
@@ -3640,10 +3636,10 @@
     </row>
     <row r="73" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -3683,10 +3679,10 @@
     </row>
     <row r="74" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="6" t="s">
@@ -3732,10 +3728,10 @@
     </row>
     <row r="75" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="6" t="s">
@@ -3781,10 +3777,10 @@
     </row>
     <row r="76" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>20</v>
@@ -3846,10 +3842,10 @@
     </row>
     <row r="77" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>20</v>
@@ -3911,10 +3907,10 @@
     </row>
     <row r="78" spans="1:37" ht="31" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>20</v>
@@ -3976,10 +3972,10 @@
     </row>
     <row r="79" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="6" t="s">
@@ -4022,10 +4018,10 @@
     </row>
     <row r="80" spans="1:37" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="6" t="s">
@@ -4068,10 +4064,10 @@
     </row>
     <row r="81" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4108,10 +4104,10 @@
     </row>
     <row r="82" spans="1:41" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="6" t="s">
@@ -4154,10 +4150,10 @@
     </row>
     <row r="83" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="6" t="s">
@@ -4200,10 +4196,10 @@
     </row>
     <row r="84" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="6" t="s">
@@ -4246,10 +4242,10 @@
     </row>
     <row r="85" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4298,10 +4294,10 @@
     </row>
     <row r="86" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4354,10 +4350,10 @@
     </row>
     <row r="87" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4410,10 +4406,10 @@
     </row>
     <row r="88" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4466,10 +4462,10 @@
     </row>
     <row r="89" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4522,10 +4518,10 @@
     </row>
     <row r="90" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>20</v>
@@ -4592,10 +4588,10 @@
     </row>
     <row r="91" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4648,10 +4644,10 @@
     </row>
     <row r="92" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>20</v>
@@ -4718,10 +4714,10 @@
     </row>
     <row r="93" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4774,10 +4770,10 @@
     </row>
     <row r="94" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>15</v>
@@ -4828,10 +4824,10 @@
     </row>
     <row r="95" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4876,10 +4872,10 @@
     </row>
     <row r="96" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4932,10 +4928,10 @@
     </row>
     <row r="97" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4988,10 +4984,10 @@
     </row>
     <row r="98" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -5034,10 +5030,10 @@
     </row>
     <row r="99" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
@@ -5085,10 +5081,10 @@
     </row>
     <row r="100" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
@@ -5137,10 +5133,10 @@
     </row>
     <row r="101" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -5189,10 +5185,10 @@
     </row>
     <row r="102" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -5241,10 +5237,10 @@
     </row>
     <row r="103" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -5294,10 +5290,10 @@
     </row>
     <row r="104" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -5341,10 +5337,10 @@
     </row>
     <row r="105" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -5394,10 +5390,10 @@
     </row>
     <row r="106" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5447,10 +5443,10 @@
     </row>
     <row r="107" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>20</v>
@@ -5516,10 +5512,10 @@
     </row>
     <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>20</v>
@@ -5585,10 +5581,10 @@
     </row>
     <row r="109" spans="1:41" ht="31" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>20</v>
@@ -5654,10 +5650,10 @@
     </row>
     <row r="110" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -5703,10 +5699,10 @@
     </row>
     <row r="111" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -5752,10 +5748,10 @@
     </row>
     <row r="112" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -5795,10 +5791,10 @@
     </row>
     <row r="113" spans="1:40" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -5844,10 +5840,10 @@
     </row>
     <row r="114" spans="1:40" ht="31" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -5893,10 +5889,10 @@
     </row>
     <row r="115" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -5942,10 +5938,10 @@
     </row>
     <row r="116" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>20</v>
@@ -5973,10 +5969,10 @@
     </row>
     <row r="117" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="5"/>
@@ -5998,10 +5994,10 @@
     </row>
     <row r="118" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>20</v>
@@ -6029,10 +6025,10 @@
     </row>
     <row r="119" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>20</v>
@@ -6060,10 +6056,10 @@
     </row>
     <row r="120" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>16</v>
@@ -6107,10 +6103,10 @@
     </row>
     <row r="121" spans="1:40" ht="31" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>20</v>
@@ -6154,10 +6150,10 @@
     </row>
     <row r="122" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>20</v>
@@ -6185,10 +6181,10 @@
     </row>
     <row r="123" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>20</v>
@@ -6216,10 +6212,10 @@
     </row>
     <row r="124" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="6" t="s">
@@ -6247,10 +6243,10 @@
     </row>
     <row r="125" spans="1:40" ht="31" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="s">
@@ -6278,10 +6274,10 @@
     </row>
     <row r="126" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>20</v>
@@ -6325,10 +6321,10 @@
     </row>
     <row r="127" spans="1:40" ht="31" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="s">
@@ -6356,10 +6352,10 @@
     </row>
     <row r="128" spans="1:40" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>20</v>
@@ -6387,10 +6383,10 @@
     </row>
     <row r="129" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="5"/>
@@ -6412,10 +6408,10 @@
     </row>
     <row r="130" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>20</v>
@@ -6443,10 +6439,10 @@
     </row>
     <row r="131" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>20</v>
@@ -6474,10 +6470,10 @@
     </row>
     <row r="132" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>15</v>
@@ -6505,10 +6501,10 @@
     </row>
     <row r="133" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>20</v>
@@ -6552,10 +6548,10 @@
     </row>
     <row r="134" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>20</v>
@@ -6599,10 +6595,10 @@
     </row>
     <row r="135" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>20</v>
@@ -6630,10 +6626,10 @@
     </row>
     <row r="136" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>15</v>
@@ -6661,10 +6657,10 @@
     </row>
     <row r="137" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>20</v>
@@ -6708,10 +6704,10 @@
     </row>
     <row r="138" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>20</v>
@@ -6739,10 +6735,10 @@
     </row>
     <row r="139" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>20</v>
@@ -6760,7 +6756,7 @@
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
       <c r="L139" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M139" s="36"/>
       <c r="N139" s="10"/>
@@ -6770,10 +6766,10 @@
     </row>
     <row r="140" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
@@ -6795,10 +6791,10 @@
     </row>
     <row r="141" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>20</v>
@@ -6816,7 +6812,7 @@
       <c r="J141" s="5"/>
       <c r="K141" s="38"/>
       <c r="L141" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M141" s="37"/>
       <c r="N141" s="10"/>
@@ -6826,10 +6822,10 @@
     </row>
     <row r="142" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>20</v>
@@ -6847,7 +6843,7 @@
       <c r="J142" s="5"/>
       <c r="K142" s="38"/>
       <c r="L142" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M142" s="37"/>
       <c r="N142" s="10"/>
@@ -6857,10 +6853,10 @@
     </row>
     <row r="143" spans="1:17" ht="31" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>20</v>
@@ -6878,7 +6874,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M143" s="37"/>
       <c r="N143" s="10"/>
@@ -6888,10 +6884,10 @@
     </row>
     <row r="144" spans="1:17" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>20</v>
@@ -6919,10 +6915,10 @@
     </row>
     <row r="145" spans="1:17" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>20</v>
